--- a/reference/Core6ResourcesTable20240212.xlsx
+++ b/reference/Core6ResourcesTable20240212.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kohe/GitHub/clinical-core/reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8AFD45-FCF9-1444-BA8D-FA52A2781F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F79574-54B5-0A4C-8327-0748AE5392B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="500" windowWidth="30000" windowHeight="16820" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20220" yWindow="500" windowWidth="30000" windowHeight="16820" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AllergyIntoleranceTable" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3296" uniqueCount="915">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3296" uniqueCount="914">
   <si>
     <t>要素Lv1</t>
   </si>
@@ -5409,10 +5409,6 @@
     <rPh sb="100" eb="102">
       <t xml:space="preserve">テキヨウ </t>
     </rPh>
-    <phoneticPr fontId="26"/>
-  </si>
-  <si>
-    <t>1..0</t>
     <phoneticPr fontId="26"/>
   </si>
   <si>
@@ -11640,7 +11636,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="46" customHeight="1" thickBot="1">
       <c r="A1" s="345" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B1" s="345"/>
       <c r="C1" s="345"/>
@@ -11763,13 +11759,13 @@
         <v>20</v>
       </c>
       <c r="G6" s="21" t="s">
+        <v>718</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>703</v>
+      </c>
+      <c r="I6" s="227" t="s">
         <v>719</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>704</v>
-      </c>
-      <c r="I6" s="227" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -11811,7 +11807,7 @@
         <v>25</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>11</v>
@@ -11914,7 +11910,7 @@
       </c>
       <c r="F13" s="75"/>
       <c r="G13" s="246" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H13" s="52"/>
       <c r="I13" s="230"/>
@@ -11936,7 +11932,7 @@
       <c r="H14" s="239"/>
       <c r="I14" s="240"/>
       <c r="L14" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="133" customHeight="1">
@@ -11955,7 +11951,7 @@
         <v>25</v>
       </c>
       <c r="G15" s="219" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H15" s="202" t="s">
         <v>397</v>
@@ -12053,7 +12049,7 @@
         <v>274</v>
       </c>
       <c r="G19" s="218" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H19" s="204"/>
       <c r="I19" s="228"/>
@@ -12176,7 +12172,7 @@
         <v>433</v>
       </c>
       <c r="G24" s="220" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H24" s="52" t="s">
         <v>598</v>
@@ -12253,7 +12249,7 @@
         <v>39</v>
       </c>
       <c r="G27" s="21" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H27" s="6"/>
       <c r="I27" s="227"/>
@@ -12274,7 +12270,7 @@
         <v>25</v>
       </c>
       <c r="G28" s="222" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>11</v>
@@ -12322,7 +12318,7 @@
         <v>47</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="227"/>
@@ -12464,7 +12460,7 @@
         <v>47</v>
       </c>
       <c r="G36" s="21" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H36" s="6"/>
       <c r="I36" s="227"/>
@@ -12541,7 +12537,7 @@
         <v>17</v>
       </c>
       <c r="I39" s="227" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="30">
@@ -12568,7 +12564,7 @@
         <v>17</v>
       </c>
       <c r="I40" s="227" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="45">
@@ -12629,7 +12625,7 @@
         <v>29</v>
       </c>
       <c r="G43" s="21" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>17</v>
@@ -12652,7 +12648,7 @@
         <v>29</v>
       </c>
       <c r="G44" s="21" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>17</v>
@@ -12752,7 +12748,7 @@
         <v>17</v>
       </c>
       <c r="I48" s="227" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -12779,7 +12775,7 @@
         <v>17</v>
       </c>
       <c r="I49" s="227" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="45">
@@ -12804,7 +12800,7 @@
         <v>17</v>
       </c>
       <c r="I50" s="227" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="75">
@@ -12821,13 +12817,13 @@
         <v>464</v>
       </c>
       <c r="G51" s="21" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H51" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I51" s="227" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="210">
@@ -12838,13 +12834,13 @@
       <c r="E52" s="248"/>
       <c r="F52" s="6"/>
       <c r="G52" s="21" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H52" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I52" s="227" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="90">
@@ -12878,7 +12874,7 @@
       <c r="E54" s="14"/>
       <c r="F54" s="6"/>
       <c r="G54" s="21" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H54" s="6" t="s">
         <v>17</v>
@@ -13855,7 +13851,7 @@
         <v>17</v>
       </c>
       <c r="I95" s="227" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="30">
@@ -14088,7 +14084,7 @@
         <v>17</v>
       </c>
       <c r="I104" s="227" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="30">
@@ -14307,7 +14303,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="46" customHeight="1" thickBot="1">
       <c r="A1" s="345" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B1" s="345"/>
       <c r="C1" s="345"/>
@@ -14361,7 +14357,7 @@
         <v>433</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>11</v>
@@ -14430,13 +14426,13 @@
         <v>20</v>
       </c>
       <c r="G6" s="21" t="s">
+        <v>716</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>703</v>
+      </c>
+      <c r="I6" s="227" t="s">
         <v>717</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>704</v>
-      </c>
-      <c r="I6" s="227" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -14532,7 +14528,7 @@
         <v>25</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>11</v>
@@ -14635,7 +14631,7 @@
       </c>
       <c r="F15" s="75"/>
       <c r="G15" s="246" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H15" s="52"/>
       <c r="I15" s="230"/>
@@ -14657,7 +14653,7 @@
       <c r="H16" s="239"/>
       <c r="I16" s="240"/>
       <c r="L16" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="133" customHeight="1">
@@ -14676,7 +14672,7 @@
         <v>25</v>
       </c>
       <c r="G17" s="219" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H17" s="202" t="s">
         <v>397</v>
@@ -14774,7 +14770,7 @@
         <v>274</v>
       </c>
       <c r="G21" s="218" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H21" s="204"/>
       <c r="I21" s="68"/>
@@ -14974,7 +14970,7 @@
         <v>39</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H29" s="6"/>
       <c r="I29" s="9"/>
@@ -14995,7 +14991,7 @@
         <v>25</v>
       </c>
       <c r="G30" s="222" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>11</v>
@@ -15043,7 +15039,7 @@
         <v>47</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H32" s="6"/>
       <c r="I32" s="9"/>
@@ -15262,7 +15258,7 @@
         <v>17</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="30">
@@ -15289,7 +15285,7 @@
         <v>17</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="45">
@@ -15327,13 +15323,13 @@
         <v>227</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="90">
@@ -15394,7 +15390,7 @@
         <v>22</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H47" s="6"/>
       <c r="I47" s="9"/>
@@ -15417,13 +15413,13 @@
         <v>25</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="H48" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -15496,7 +15492,7 @@
         <v>43</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H51" s="6" t="s">
         <v>17</v>
@@ -15542,13 +15538,13 @@
         <v>464</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H53" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="54" spans="1:18" ht="210">
@@ -15559,13 +15555,13 @@
       <c r="E54" s="14"/>
       <c r="F54" s="6"/>
       <c r="G54" s="21" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H54" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I54" s="227" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="55" spans="1:18" ht="90">
@@ -15622,7 +15618,7 @@
         <v>76</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H57" s="6"/>
       <c r="I57" s="9"/>
@@ -15642,7 +15638,7 @@
         <v>78</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H58" s="6" t="s">
         <v>17</v>
@@ -16174,7 +16170,7 @@
         <v>76</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H80" s="6"/>
       <c r="I80" s="9"/>
@@ -16308,7 +16304,7 @@
         <v>251</v>
       </c>
       <c r="I86" s="30" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -16414,7 +16410,7 @@
       </c>
       <c r="H92" s="29"/>
       <c r="I92" s="30" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -16556,7 +16552,7 @@
   <sheetData>
     <row r="1" spans="1:10" customFormat="1" ht="46" customHeight="1" thickBot="1">
       <c r="A1" s="351" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B1" s="345"/>
       <c r="C1" s="345"/>
@@ -16685,13 +16681,13 @@
         <v>20</v>
       </c>
       <c r="H6" s="21" t="s">
+        <v>727</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>703</v>
+      </c>
+      <c r="J6" s="227" t="s">
         <v>728</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>704</v>
-      </c>
-      <c r="J6" s="227" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="135" customFormat="1">
@@ -16863,7 +16859,7 @@
       </c>
       <c r="G14" s="195"/>
       <c r="H14" s="196" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="I14" s="197"/>
       <c r="J14" s="198"/>
@@ -16903,7 +16899,7 @@
         <v>25</v>
       </c>
       <c r="H16" s="219" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="I16" s="202" t="s">
         <v>397</v>
@@ -17005,7 +17001,7 @@
         <v>274</v>
       </c>
       <c r="H20" s="218" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I20" s="204"/>
       <c r="J20" s="68"/>
@@ -17213,7 +17209,7 @@
         <v>39</v>
       </c>
       <c r="H28" s="70" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="I28" s="70"/>
       <c r="J28" s="154"/>
@@ -17235,7 +17231,7 @@
         <v>25</v>
       </c>
       <c r="H29" s="222" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="I29" s="123" t="s">
         <v>11</v>
@@ -17557,7 +17553,7 @@
         <v>22</v>
       </c>
       <c r="H42" s="341" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="I42" s="37"/>
       <c r="J42" s="159"/>
@@ -17581,13 +17577,13 @@
         <v>25</v>
       </c>
       <c r="H43" s="329" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="I43" s="43" t="s">
         <v>17</v>
       </c>
       <c r="J43" s="159" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="45">
@@ -17609,7 +17605,7 @@
         <v>29</v>
       </c>
       <c r="H44" s="37" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="I44" s="43" t="s">
         <v>17</v>
@@ -17637,7 +17633,7 @@
         <v>43</v>
       </c>
       <c r="H45" s="137" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="I45" s="133" t="s">
         <v>17</v>
@@ -17687,13 +17683,13 @@
         <v>464</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="I47" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="48" spans="1:10" customFormat="1" ht="210">
@@ -17705,13 +17701,13 @@
       <c r="F48" s="14"/>
       <c r="G48" s="6"/>
       <c r="H48" s="21" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="I48" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J48" s="227" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="49" spans="1:10" customFormat="1" ht="90">
@@ -18209,7 +18205,7 @@
         <v>339</v>
       </c>
       <c r="J68" s="343" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="29" thickBot="1">
@@ -18665,7 +18661,7 @@
         <v>17</v>
       </c>
       <c r="J85" s="160" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
   </sheetData>
@@ -18689,8 +18685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F072C65F-1439-C74F-A77A-07DDE1C12202}">
   <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView topLeftCell="A33" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38:G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -18708,7 +18704,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="21" thickBot="1">
       <c r="A1" s="353" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B1" s="353"/>
       <c r="C1" s="353"/>
@@ -18762,7 +18758,7 @@
         <v>433</v>
       </c>
       <c r="G3" s="270" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H3" s="270"/>
       <c r="I3" s="271" t="s">
@@ -18806,7 +18802,7 @@
         <v>17</v>
       </c>
       <c r="I5" s="273" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="120">
@@ -18825,13 +18821,13 @@
         <v>20</v>
       </c>
       <c r="G6" s="276" t="s">
+        <v>730</v>
+      </c>
+      <c r="H6" s="37" t="s">
+        <v>703</v>
+      </c>
+      <c r="I6" s="277" t="s">
         <v>731</v>
-      </c>
-      <c r="H6" s="37" t="s">
-        <v>704</v>
-      </c>
-      <c r="I6" s="277" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -18879,7 +18875,7 @@
         <v>11</v>
       </c>
       <c r="I8" s="273" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="30">
@@ -18942,7 +18938,7 @@
         <v>585</v>
       </c>
       <c r="G11" s="37" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H11" s="37"/>
       <c r="I11" s="289"/>
@@ -18978,7 +18974,7 @@
       </c>
       <c r="F13" s="371"/>
       <c r="G13" s="290" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H13" s="291"/>
       <c r="I13" s="292"/>
@@ -19016,7 +19012,7 @@
         <v>25</v>
       </c>
       <c r="G15" s="296" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H15" s="202" t="s">
         <v>397</v>
@@ -19114,7 +19110,7 @@
         <v>274</v>
       </c>
       <c r="G19" s="303" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H19" s="294"/>
       <c r="I19" s="304"/>
@@ -19314,7 +19310,7 @@
         <v>39</v>
       </c>
       <c r="G27" s="276" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="H27" s="310"/>
       <c r="I27" s="311"/>
@@ -19335,7 +19331,7 @@
         <v>25</v>
       </c>
       <c r="G28" s="316" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H28" s="315" t="s">
         <v>11</v>
@@ -19383,7 +19379,7 @@
         <v>473</v>
       </c>
       <c r="G30" s="321" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H30" s="321"/>
       <c r="I30" s="322"/>
@@ -19446,7 +19442,7 @@
         <v>487</v>
       </c>
       <c r="G33" s="329" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="H33" s="321"/>
       <c r="I33" s="161"/>
@@ -19662,7 +19658,7 @@
       <c r="C43" s="290"/>
       <c r="D43" s="290"/>
       <c r="E43" s="393" t="s">
-        <v>629</v>
+        <v>219</v>
       </c>
       <c r="F43" s="290" t="s">
         <v>433</v>
@@ -19685,13 +19681,13 @@
         <v>464</v>
       </c>
       <c r="G44" s="116" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H44" s="116" t="s">
         <v>17</v>
       </c>
       <c r="I44" s="326" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="210">
@@ -19702,13 +19698,13 @@
       <c r="E45" s="38"/>
       <c r="F45" s="37"/>
       <c r="G45" s="276" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H45" s="37" t="s">
         <v>17</v>
       </c>
       <c r="I45" s="277" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="90">
@@ -19725,7 +19721,7 @@
         <v>465</v>
       </c>
       <c r="G46" s="37" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H46" s="37" t="s">
         <v>17</v>
@@ -19753,7 +19749,7 @@
     </row>
     <row r="48" spans="1:9" ht="58">
       <c r="A48" s="53" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B48" s="290"/>
       <c r="C48" s="290"/>
@@ -19762,21 +19758,21 @@
         <v>219</v>
       </c>
       <c r="F48" s="53" t="s">
+        <v>632</v>
+      </c>
+      <c r="G48" s="53" t="s">
+        <v>634</v>
+      </c>
+      <c r="H48" s="53" t="s">
+        <v>630</v>
+      </c>
+      <c r="I48" s="292" t="s">
         <v>633</v>
-      </c>
-      <c r="G48" s="53" t="s">
-        <v>635</v>
-      </c>
-      <c r="H48" s="53" t="s">
-        <v>631</v>
-      </c>
-      <c r="I48" s="292" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="45">
       <c r="A49" s="394" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B49" s="290"/>
       <c r="C49" s="290"/>
@@ -19785,21 +19781,21 @@
         <v>212</v>
       </c>
       <c r="F49" s="53" t="s">
+        <v>675</v>
+      </c>
+      <c r="G49" s="53" t="s">
+        <v>677</v>
+      </c>
+      <c r="H49" s="53" t="s">
+        <v>630</v>
+      </c>
+      <c r="I49" s="292" t="s">
         <v>676</v>
-      </c>
-      <c r="G49" s="53" t="s">
-        <v>678</v>
-      </c>
-      <c r="H49" s="53" t="s">
-        <v>631</v>
-      </c>
-      <c r="I49" s="292" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="105">
       <c r="A50" s="396" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B50" s="53"/>
       <c r="C50" s="53"/>
@@ -19809,14 +19805,14 @@
       </c>
       <c r="F50" s="53"/>
       <c r="G50" s="53" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H50" s="53"/>
       <c r="I50" s="271"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="53" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B51" s="53"/>
       <c r="C51" s="53"/>
@@ -19828,7 +19824,7 @@
         <v>365</v>
       </c>
       <c r="G51" s="53" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H51" s="53"/>
       <c r="I51" s="271"/>
@@ -19844,10 +19840,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="F52" s="53" t="s">
+        <v>638</v>
+      </c>
+      <c r="G52" s="53" t="s">
         <v>639</v>
-      </c>
-      <c r="G52" s="53" t="s">
-        <v>640</v>
       </c>
       <c r="H52" s="53" t="s">
         <v>598</v>
@@ -19859,7 +19855,7 @@
     <row r="53" spans="1:9" ht="60">
       <c r="A53" s="53"/>
       <c r="B53" s="53" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C53" s="53"/>
       <c r="D53" s="53"/>
@@ -19870,13 +19866,13 @@
         <v>405</v>
       </c>
       <c r="G53" s="53" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H53" s="53" t="s">
         <v>598</v>
       </c>
       <c r="I53" s="271" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -19893,13 +19889,13 @@
         <v>43</v>
       </c>
       <c r="G54" s="53" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H54" s="53" t="s">
         <v>598</v>
       </c>
       <c r="I54" s="271" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="30">
@@ -19916,13 +19912,13 @@
         <v>543</v>
       </c>
       <c r="G55" s="53" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H55" s="53" t="s">
         <v>598</v>
       </c>
       <c r="I55" s="214" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -19939,7 +19935,7 @@
         <v>405</v>
       </c>
       <c r="G56" s="53" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H56" s="53"/>
       <c r="I56" s="271"/>
@@ -19958,7 +19954,7 @@
         <v>47</v>
       </c>
       <c r="G57" s="53" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H57" s="53"/>
       <c r="I57" s="271"/>
@@ -19994,7 +19990,7 @@
         <v>543</v>
       </c>
       <c r="G59" s="53" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H59" s="53"/>
       <c r="I59" s="271"/>
@@ -20015,13 +20011,13 @@
         <v>433</v>
       </c>
       <c r="G60" s="53" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H60" s="53" t="s">
         <v>598</v>
       </c>
       <c r="I60" s="271" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -20040,18 +20036,18 @@
         <v>433</v>
       </c>
       <c r="G61" s="53" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H61" s="53" t="s">
         <v>598</v>
       </c>
       <c r="I61" s="271" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="30">
       <c r="A62" s="53" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B62" s="53"/>
       <c r="C62" s="53"/>
@@ -20063,7 +20059,7 @@
         <v>43</v>
       </c>
       <c r="G62" s="53" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H62" s="53"/>
       <c r="I62" s="271"/>
@@ -20082,7 +20078,7 @@
         <v>357</v>
       </c>
       <c r="G63" s="53" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H63" s="53"/>
       <c r="I63" s="271"/>
@@ -20101,7 +20097,7 @@
         <v>278</v>
       </c>
       <c r="G64" s="53" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H64" s="53"/>
       <c r="I64" s="271"/>
@@ -20120,7 +20116,7 @@
         <v>100</v>
       </c>
       <c r="G65" s="53" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H65" s="53"/>
       <c r="I65" s="271"/>
@@ -20139,7 +20135,7 @@
         <v>363</v>
       </c>
       <c r="G66" s="53" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H66" s="53"/>
       <c r="I66" s="271"/>
@@ -20158,7 +20154,7 @@
         <v>558</v>
       </c>
       <c r="G67" s="53" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H67" s="53"/>
       <c r="I67" s="271"/>
@@ -20177,7 +20173,7 @@
         <v>126</v>
       </c>
       <c r="G68" s="53" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H68" s="53"/>
       <c r="I68" s="271"/>
@@ -20196,7 +20192,7 @@
         <v>78</v>
       </c>
       <c r="G69" s="53" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H69" s="53"/>
       <c r="I69" s="271"/>
@@ -20215,14 +20211,14 @@
         <v>348</v>
       </c>
       <c r="G70" s="53" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H70" s="53"/>
       <c r="I70" s="271"/>
     </row>
     <row r="71" spans="1:9" ht="75">
       <c r="A71" s="367" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B71" s="53"/>
       <c r="C71" s="53"/>
@@ -20234,7 +20230,7 @@
         <v>47</v>
       </c>
       <c r="G71" s="53" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H71" s="53"/>
       <c r="I71" s="271"/>
@@ -20253,13 +20249,13 @@
         <v>433</v>
       </c>
       <c r="G72" s="53" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H72" s="53" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="I72" s="271" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="30">
@@ -20276,7 +20272,7 @@
         <v>47</v>
       </c>
       <c r="G73" s="53" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H73" s="53"/>
       <c r="I73" s="271"/>
@@ -20312,10 +20308,10 @@
         <v>543</v>
       </c>
       <c r="G75" s="53" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H75" s="53" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="I75" s="271" t="s">
         <v>583</v>
@@ -20337,13 +20333,13 @@
         <v>433</v>
       </c>
       <c r="G76" s="53" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H76" s="53" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="I76" s="271" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -20362,13 +20358,13 @@
         <v>433</v>
       </c>
       <c r="G77" s="53" t="s">
+        <v>685</v>
+      </c>
+      <c r="H77" s="53" t="s">
+        <v>653</v>
+      </c>
+      <c r="I77" s="271" t="s">
         <v>686</v>
-      </c>
-      <c r="H77" s="53" t="s">
-        <v>654</v>
-      </c>
-      <c r="I77" s="271" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -20385,13 +20381,13 @@
         <v>433</v>
       </c>
       <c r="G78" s="53" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H78" s="53" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="I78" s="328" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -20446,7 +20442,7 @@
       </c>
       <c r="H81" s="53"/>
       <c r="I81" s="271" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -20501,7 +20497,7 @@
         <v>47</v>
       </c>
       <c r="G84" s="53" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H84" s="53"/>
       <c r="I84" s="271"/>
@@ -20522,7 +20518,7 @@
         <v>43</v>
       </c>
       <c r="G85" s="269" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H85" s="269"/>
       <c r="I85" s="271"/>
@@ -20541,7 +20537,7 @@
         <v>564</v>
       </c>
       <c r="G86" s="37" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H86" s="37" t="s">
         <v>17</v>
@@ -20558,13 +20554,13 @@
       <c r="E87" s="37"/>
       <c r="F87" s="37"/>
       <c r="G87" s="37" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H87" s="37" t="s">
         <v>17</v>
       </c>
       <c r="I87" s="289" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -20581,13 +20577,13 @@
         <v>433</v>
       </c>
       <c r="G88" s="37" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H88" s="37" t="s">
         <v>17</v>
       </c>
       <c r="I88" s="331" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -20604,18 +20600,18 @@
         <v>433</v>
       </c>
       <c r="G89" s="37" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="H89" s="37" t="s">
         <v>17</v>
       </c>
       <c r="I89" s="332" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="30">
       <c r="A90" s="367" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B90" s="53"/>
       <c r="C90" s="53"/>
@@ -20627,7 +20623,7 @@
         <v>131</v>
       </c>
       <c r="G90" s="53" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H90" s="53"/>
       <c r="I90" s="271"/>
@@ -20764,14 +20760,14 @@
         <v>476</v>
       </c>
       <c r="G97" s="53" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H97" s="53"/>
       <c r="I97" s="271"/>
     </row>
     <row r="98" spans="1:9" ht="165">
       <c r="A98" s="367" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B98" s="37"/>
       <c r="C98" s="37"/>
@@ -20780,16 +20776,16 @@
         <v>19</v>
       </c>
       <c r="F98" s="53" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G98" s="37" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H98" s="37" t="s">
         <v>17</v>
       </c>
       <c r="I98" s="289" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="120">
@@ -20806,7 +20802,7 @@
         <v>131</v>
       </c>
       <c r="G99" s="53" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H99" s="53"/>
       <c r="I99" s="271"/>
@@ -20841,7 +20837,7 @@
         <v>46</v>
       </c>
       <c r="F101" s="53" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="G101" s="269" t="s">
         <v>577</v>
@@ -20947,7 +20943,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="46" customHeight="1" thickBot="1">
       <c r="A1" s="345" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B1" s="345"/>
       <c r="C1" s="345"/>
@@ -21020,7 +21016,7 @@
         <v>274</v>
       </c>
       <c r="G4" s="60" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H4" s="165"/>
       <c r="I4" s="61"/>
@@ -22029,7 +22025,7 @@
         <v>397</v>
       </c>
       <c r="I45" s="189" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -22869,7 +22865,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="16" thickBot="1">
       <c r="A1" s="360" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B1" s="360"/>
       <c r="C1" s="360"/>
@@ -22923,13 +22919,13 @@
         <v>433</v>
       </c>
       <c r="G3" s="253" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H3" s="215" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="254" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -22992,18 +22988,18 @@
         <v>20</v>
       </c>
       <c r="G6" s="257" t="s">
+        <v>738</v>
+      </c>
+      <c r="H6" s="215" t="s">
+        <v>703</v>
+      </c>
+      <c r="I6" s="258" t="s">
         <v>739</v>
-      </c>
-      <c r="H6" s="215" t="s">
-        <v>704</v>
-      </c>
-      <c r="I6" s="258" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="30">
       <c r="A7" s="260" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B7" s="29"/>
       <c r="C7" s="29"/>
@@ -23015,14 +23011,14 @@
         <v>39</v>
       </c>
       <c r="G7" s="29" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H7" s="29"/>
       <c r="I7" s="254"/>
     </row>
     <row r="8" spans="1:9" ht="45">
       <c r="A8" s="260" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B8" s="29" t="s">
         <v>24</v>
@@ -23034,18 +23030,18 @@
       </c>
       <c r="F8" s="29"/>
       <c r="G8" s="29" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H8" s="29" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="I8" s="254" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="260" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B9" s="29" t="s">
         <v>42</v>
@@ -23057,10 +23053,10 @@
       </c>
       <c r="F9" s="29"/>
       <c r="G9" s="29" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H9" s="29" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="I9" s="254" t="s">
         <v>44</v>
@@ -23080,18 +23076,18 @@
         <v>29</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="I10" s="254" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="260" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
@@ -23103,14 +23099,14 @@
         <v>22</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H11" s="29"/>
       <c r="I11" s="254"/>
     </row>
     <row r="12" spans="1:9" ht="45">
       <c r="A12" s="260" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B12" s="29" t="s">
         <v>24</v>
@@ -23124,18 +23120,18 @@
         <v>25</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="I12" s="254" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="60">
       <c r="A13" s="260" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B13" s="29" t="s">
         <v>29</v>
@@ -23149,18 +23145,18 @@
         <v>29</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H13" s="29" t="s">
         <v>251</v>
       </c>
       <c r="I13" s="254" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="260" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B14" s="29" t="s">
         <v>136</v>
@@ -23178,12 +23174,12 @@
         <v>251</v>
       </c>
       <c r="I14" s="254" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="45">
       <c r="A15" s="260" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
@@ -23193,17 +23189,17 @@
       </c>
       <c r="F15" s="29"/>
       <c r="G15" s="29" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H15" s="29"/>
       <c r="I15" s="254"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="260" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C16" s="29"/>
       <c r="D16" s="29"/>
@@ -23214,17 +23210,17 @@
         <v>22</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H16" s="29"/>
       <c r="I16" s="254"/>
     </row>
     <row r="17" spans="1:9" ht="45">
       <c r="A17" s="260" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C17" s="29" t="s">
         <v>24</v>
@@ -23237,21 +23233,21 @@
         <v>25</v>
       </c>
       <c r="G17" s="29" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="H17" s="29" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="I17" s="254" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="75">
       <c r="A18" s="260" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C18" s="29" t="s">
         <v>29</v>
@@ -23262,19 +23258,19 @@
       </c>
       <c r="F18" s="29"/>
       <c r="G18" s="29" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H18" s="29"/>
       <c r="I18" s="254" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="260" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C19" s="29" t="s">
         <v>136</v>
@@ -23287,15 +23283,15 @@
       <c r="G19" s="29"/>
       <c r="H19" s="29"/>
       <c r="I19" s="254" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="30">
       <c r="A20" s="260" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C20" s="29"/>
       <c r="D20" s="29"/>
@@ -23304,17 +23300,17 @@
       </c>
       <c r="F20" s="29"/>
       <c r="G20" s="29" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H20" s="29"/>
       <c r="I20" s="254"/>
     </row>
     <row r="21" spans="1:9" ht="45">
       <c r="A21" s="260" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C21" s="29" t="s">
         <v>95</v>
@@ -23327,7 +23323,7 @@
         <v>78</v>
       </c>
       <c r="G21" s="29" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H21" s="29"/>
       <c r="I21" s="254" t="s">
@@ -23336,10 +23332,10 @@
     </row>
     <row r="22" spans="1:9" ht="30">
       <c r="A22" s="260" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C22" s="29" t="s">
         <v>97</v>
@@ -23352,16 +23348,16 @@
         <v>78</v>
       </c>
       <c r="G22" s="29" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H22" s="29"/>
       <c r="I22" s="254" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="41" customHeight="1">
       <c r="A23" s="260" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B23" s="29"/>
       <c r="C23" s="29"/>
@@ -23370,17 +23366,17 @@
         <v>46</v>
       </c>
       <c r="F23" s="29" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="G23" s="29" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="H23" s="29"/>
       <c r="I23" s="254"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="260" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B24" s="29" t="s">
         <v>95</v>
@@ -23394,16 +23390,16 @@
         <v>78</v>
       </c>
       <c r="G24" s="29" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H24" s="29"/>
       <c r="I24" s="254" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="260" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B25" s="29" t="s">
         <v>97</v>
@@ -23417,16 +23413,16 @@
         <v>78</v>
       </c>
       <c r="G25" s="29" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H25" s="29"/>
       <c r="I25" s="254" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="260" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B26" s="29"/>
       <c r="C26" s="29"/>
@@ -23438,14 +23434,14 @@
         <v>350</v>
       </c>
       <c r="G26" s="29" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H26" s="29"/>
       <c r="I26" s="254"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="260" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B27" s="29" t="s">
         <v>42</v>
@@ -23459,7 +23455,7 @@
         <v>83</v>
       </c>
       <c r="G27" s="29" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H27" s="29"/>
       <c r="I27" s="254">
@@ -23468,7 +23464,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="260" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B28" s="29" t="s">
         <v>88</v>
@@ -23482,16 +23478,16 @@
         <v>43</v>
       </c>
       <c r="G28" s="29" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H28" s="29"/>
       <c r="I28" s="254" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="29" customHeight="1">
       <c r="A29" s="260" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B29" s="29" t="s">
         <v>24</v>
@@ -23505,7 +23501,7 @@
         <v>25</v>
       </c>
       <c r="G29" s="29" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H29" s="29"/>
       <c r="I29" s="254" t="s">
@@ -23514,7 +23510,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="260" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B30" s="29" t="s">
         <v>29</v>
@@ -23528,7 +23524,7 @@
         <v>29</v>
       </c>
       <c r="G30" s="29" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H30" s="29"/>
       <c r="I30" s="254" t="s">
@@ -23537,7 +23533,7 @@
     </row>
     <row r="31" spans="1:9" ht="135">
       <c r="A31" s="260" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B31" s="29"/>
       <c r="C31" s="29"/>
@@ -23549,18 +23545,18 @@
         <v>47</v>
       </c>
       <c r="G31" s="29" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H31" s="29" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="I31" s="364" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="260" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B32" s="29"/>
       <c r="C32" s="29"/>
@@ -23570,17 +23566,17 @@
       </c>
       <c r="F32" s="29"/>
       <c r="G32" s="29" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H32" s="29"/>
       <c r="I32" s="254"/>
     </row>
     <row r="33" spans="1:9" ht="30">
       <c r="A33" s="260" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C33" s="29"/>
       <c r="D33" s="29"/>
@@ -23588,20 +23584,20 @@
         <v>10</v>
       </c>
       <c r="F33" s="29" t="s">
+        <v>758</v>
+      </c>
+      <c r="G33" s="29" t="s">
         <v>759</v>
-      </c>
-      <c r="G33" s="29" t="s">
-        <v>760</v>
       </c>
       <c r="H33" s="29"/>
       <c r="I33" s="254"/>
     </row>
     <row r="34" spans="1:9" ht="90">
       <c r="A34" s="260" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C34" s="29"/>
       <c r="D34" s="29"/>
@@ -23612,17 +23608,17 @@
         <v>47</v>
       </c>
       <c r="G34" s="29" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H34" s="29"/>
       <c r="I34" s="254"/>
     </row>
     <row r="35" spans="1:9" ht="30">
       <c r="A35" s="260" t="s">
+        <v>809</v>
+      </c>
+      <c r="B35" s="29" t="s">
         <v>810</v>
-      </c>
-      <c r="B35" s="29" t="s">
-        <v>811</v>
       </c>
       <c r="C35" s="29" t="s">
         <v>400</v>
@@ -23633,17 +23629,17 @@
       </c>
       <c r="F35" s="29"/>
       <c r="G35" s="29" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H35" s="29"/>
       <c r="I35" s="254"/>
     </row>
     <row r="36" spans="1:9" ht="30">
       <c r="A36" s="260" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C36" s="29" t="s">
         <v>401</v>
@@ -23656,19 +23652,19 @@
       </c>
       <c r="F36" s="29"/>
       <c r="G36" s="29" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H36" s="29"/>
       <c r="I36" s="254" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="45">
       <c r="A37" s="260" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C37" s="29" t="s">
         <v>402</v>
@@ -23681,19 +23677,19 @@
       </c>
       <c r="F37" s="29"/>
       <c r="G37" s="29" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H37" s="29"/>
       <c r="I37" s="254" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="260" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C38" s="29" t="s">
         <v>402</v>
@@ -23706,19 +23702,19 @@
       </c>
       <c r="F38" s="29"/>
       <c r="G38" s="29" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H38" s="29"/>
       <c r="I38" s="254" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="30">
       <c r="A39" s="260" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C39" s="29"/>
       <c r="D39" s="29"/>
@@ -23726,10 +23722,10 @@
         <v>46</v>
       </c>
       <c r="F39" s="29" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="G39" s="29" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H39" s="29"/>
       <c r="I39" s="254">
@@ -23738,7 +23734,7 @@
     </row>
     <row r="40" spans="1:9" ht="30">
       <c r="A40" s="260" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B40" s="29"/>
       <c r="C40" s="29"/>
@@ -23750,17 +23746,17 @@
         <v>131</v>
       </c>
       <c r="G40" s="29" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H40" s="29"/>
       <c r="I40" s="254"/>
     </row>
     <row r="41" spans="1:9" ht="60">
       <c r="A41" s="260" t="s">
+        <v>766</v>
+      </c>
+      <c r="B41" s="29" t="s">
         <v>767</v>
-      </c>
-      <c r="B41" s="29" t="s">
-        <v>768</v>
       </c>
       <c r="C41" s="29"/>
       <c r="D41" s="29"/>
@@ -23768,20 +23764,20 @@
         <v>46</v>
       </c>
       <c r="F41" s="29" t="s">
+        <v>768</v>
+      </c>
+      <c r="G41" s="29" t="s">
         <v>769</v>
-      </c>
-      <c r="G41" s="29" t="s">
-        <v>770</v>
       </c>
       <c r="H41" s="29"/>
       <c r="I41" s="254"/>
     </row>
     <row r="42" spans="1:9" ht="135">
       <c r="A42" s="260" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C42" s="29"/>
       <c r="D42" s="29"/>
@@ -23792,21 +23788,21 @@
         <v>47</v>
       </c>
       <c r="G42" s="29" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H42" s="29" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="I42" s="263" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="30">
       <c r="A43" s="260" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C43" s="29"/>
       <c r="D43" s="29"/>
@@ -23817,17 +23813,17 @@
         <v>47</v>
       </c>
       <c r="G43" s="29" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H43" s="29"/>
       <c r="I43" s="254"/>
     </row>
     <row r="44" spans="1:9" ht="30">
       <c r="A44" s="260" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B44" s="29" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C44" s="29"/>
       <c r="D44" s="29"/>
@@ -23838,17 +23834,17 @@
         <v>47</v>
       </c>
       <c r="G44" s="29" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H44" s="29"/>
       <c r="I44" s="254"/>
     </row>
     <row r="45" spans="1:9" ht="30">
       <c r="A45" s="260" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C45" s="29"/>
       <c r="D45" s="29"/>
@@ -23859,17 +23855,17 @@
         <v>47</v>
       </c>
       <c r="G45" s="29" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H45" s="29"/>
       <c r="I45" s="254"/>
     </row>
     <row r="46" spans="1:9" ht="60">
       <c r="A46" s="260" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B46" s="29" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C46" s="29"/>
       <c r="D46" s="29"/>
@@ -23877,20 +23873,20 @@
         <v>46</v>
       </c>
       <c r="F46" s="29" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="G46" s="29" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H46" s="29"/>
       <c r="I46" s="254"/>
     </row>
     <row r="47" spans="1:9" ht="135">
       <c r="A47" s="260" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C47" s="29"/>
       <c r="D47" s="29"/>
@@ -23901,16 +23897,16 @@
         <v>47</v>
       </c>
       <c r="G47" s="29" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="H47" s="29"/>
       <c r="I47" s="263" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="30">
       <c r="A48" s="260" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B48" s="29"/>
       <c r="C48" s="29"/>
@@ -23922,17 +23918,17 @@
         <v>131</v>
       </c>
       <c r="G48" s="29" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H48" s="29"/>
       <c r="I48" s="254"/>
     </row>
     <row r="49" spans="1:9" ht="30">
       <c r="A49" s="260" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C49" s="29"/>
       <c r="D49" s="29"/>
@@ -23940,17 +23936,17 @@
         <v>46</v>
       </c>
       <c r="F49" s="29" t="s">
+        <v>778</v>
+      </c>
+      <c r="G49" s="29" t="s">
         <v>779</v>
-      </c>
-      <c r="G49" s="29" t="s">
-        <v>780</v>
       </c>
       <c r="H49" s="29"/>
       <c r="I49" s="254"/>
     </row>
     <row r="50" spans="1:9" ht="30">
       <c r="A50" s="260" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B50" s="29" t="s">
         <v>260</v>
@@ -23964,21 +23960,21 @@
         <v>29</v>
       </c>
       <c r="G50" s="29" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H50" s="29" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="I50" s="254" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="90">
       <c r="A51" s="260" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C51" s="29"/>
       <c r="D51" s="29"/>
@@ -23989,21 +23985,21 @@
         <v>47</v>
       </c>
       <c r="G51" s="29" t="s">
+        <v>795</v>
+      </c>
+      <c r="H51" s="29" t="s">
         <v>796</v>
       </c>
-      <c r="H51" s="29" t="s">
-        <v>797</v>
-      </c>
       <c r="I51" s="254" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="260" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B52" s="29" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C52" s="29"/>
       <c r="D52" s="29"/>
@@ -24014,17 +24010,17 @@
         <v>348</v>
       </c>
       <c r="G52" s="29" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H52" s="29"/>
       <c r="I52" s="254"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="260" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B53" s="29" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C53" s="29" t="s">
         <v>95</v>
@@ -24037,17 +24033,17 @@
         <v>78</v>
       </c>
       <c r="G53" s="29" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H53" s="29"/>
       <c r="I53" s="254"/>
     </row>
     <row r="54" spans="1:9" ht="16" thickBot="1">
       <c r="A54" s="260" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B54" s="29" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C54" s="34" t="s">
         <v>97</v>
@@ -24060,7 +24056,7 @@
         <v>78</v>
       </c>
       <c r="G54" s="34" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H54" s="34"/>
       <c r="I54" s="264"/>
@@ -24083,7 +24079,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACA92E4C-6FC3-1D48-B01E-54D12D9CB0C9}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="162" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="162" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -24101,7 +24097,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="51" customHeight="1" thickBot="1">
       <c r="A1" s="360" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B1" s="360"/>
       <c r="C1" s="360"/>
@@ -24155,13 +24151,13 @@
         <v>433</v>
       </c>
       <c r="G3" s="253" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="H3" s="215" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="254" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -24224,13 +24220,13 @@
         <v>20</v>
       </c>
       <c r="G6" s="257" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H6" s="215" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="I6" s="189" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="7" spans="1:9" customFormat="1" ht="45">
@@ -24249,7 +24245,7 @@
         <v>22</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="227"/>
@@ -24272,13 +24268,13 @@
         <v>25</v>
       </c>
       <c r="G8" s="217" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="9" spans="1:9" customFormat="1" ht="120">
@@ -24299,18 +24295,18 @@
         <v>29</v>
       </c>
       <c r="G9" s="21" t="s">
+        <v>856</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="I9" s="227" t="s">
         <v>857</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>654</v>
-      </c>
-      <c r="I9" s="227" t="s">
-        <v>858</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="131" customHeight="1">
       <c r="A10" s="260" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
@@ -24322,14 +24318,14 @@
         <v>39</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H10" s="29"/>
       <c r="I10" s="254"/>
     </row>
     <row r="11" spans="1:9" ht="42">
       <c r="A11" s="260" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B11" s="29" t="s">
         <v>24</v>
@@ -24343,18 +24339,18 @@
         <v>543</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H11" s="29" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="I11" s="337" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="211" customHeight="1">
       <c r="A12" s="260" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B12" s="29" t="s">
         <v>42</v>
@@ -24368,10 +24364,10 @@
         <v>433</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="I12" s="254" t="s">
         <v>44</v>
@@ -24391,18 +24387,18 @@
         <v>29</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="I13" s="254" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="62" customHeight="1">
       <c r="A14" s="260" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
@@ -24411,21 +24407,21 @@
         <v>10</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H14" s="29" t="s">
         <v>251</v>
       </c>
       <c r="I14" s="254" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="30">
       <c r="A15" s="260" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
@@ -24434,20 +24430,20 @@
         <v>211</v>
       </c>
       <c r="F15" s="29" t="s">
+        <v>866</v>
+      </c>
+      <c r="G15" s="29" t="s">
         <v>867</v>
-      </c>
-      <c r="G15" s="29" t="s">
-        <v>868</v>
       </c>
       <c r="H15" s="29"/>
       <c r="I15" s="254"/>
     </row>
     <row r="16" spans="1:9" ht="56" customHeight="1">
       <c r="A16" s="260" t="s">
+        <v>868</v>
+      </c>
+      <c r="B16" s="29" t="s">
         <v>869</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>870</v>
       </c>
       <c r="C16" s="29"/>
       <c r="D16" s="29"/>
@@ -24458,21 +24454,21 @@
         <v>543</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="H16" s="29" t="s">
         <v>251</v>
       </c>
       <c r="I16" s="254" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="225">
       <c r="A17" s="260" t="s">
+        <v>872</v>
+      </c>
+      <c r="B17" s="29" t="s">
         <v>873</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>874</v>
       </c>
       <c r="C17" s="29"/>
       <c r="D17" s="29"/>
@@ -24480,24 +24476,24 @@
         <v>219</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="G17" s="29" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H17" s="29" t="s">
         <v>251</v>
       </c>
       <c r="I17" s="254" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="75">
       <c r="A18" s="260" t="s">
+        <v>868</v>
+      </c>
+      <c r="B18" s="29" t="s">
         <v>869</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>870</v>
       </c>
       <c r="C18" s="29"/>
       <c r="D18" s="29"/>
@@ -24508,21 +24504,21 @@
         <v>543</v>
       </c>
       <c r="G18" s="29" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H18" s="29" t="s">
         <v>251</v>
       </c>
       <c r="I18" s="254" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="225">
       <c r="A19" s="260" t="s">
+        <v>872</v>
+      </c>
+      <c r="B19" s="29" t="s">
         <v>873</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>874</v>
       </c>
       <c r="C19" s="29"/>
       <c r="D19" s="29"/>
@@ -24530,21 +24526,21 @@
         <v>226</v>
       </c>
       <c r="F19" s="29" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G19" s="29" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H19" s="29" t="s">
         <v>251</v>
       </c>
       <c r="I19" s="254" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="32" customHeight="1">
       <c r="A20" s="361" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B20" s="362"/>
       <c r="C20" s="362"/>
@@ -24557,10 +24553,10 @@
     </row>
     <row r="21" spans="1:9" ht="30">
       <c r="A21" s="260" t="s">
+        <v>868</v>
+      </c>
+      <c r="B21" s="29" t="s">
         <v>869</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>870</v>
       </c>
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
@@ -24571,21 +24567,21 @@
         <v>543</v>
       </c>
       <c r="G21" s="29" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H21" s="29" t="s">
         <v>251</v>
       </c>
       <c r="I21" s="254" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="226" thickBot="1">
       <c r="A22" s="335" t="s">
+        <v>872</v>
+      </c>
+      <c r="B22" s="34" t="s">
         <v>873</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>874</v>
       </c>
       <c r="C22" s="34"/>
       <c r="D22" s="34"/>
@@ -24593,16 +24589,16 @@
         <v>226</v>
       </c>
       <c r="F22" s="34" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="G22" s="34" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H22" s="34" t="s">
         <v>251</v>
       </c>
       <c r="I22" s="264" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
   </sheetData>
@@ -24638,7 +24634,7 @@
         <v>45319</v>
       </c>
       <c r="B2" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
   </sheetData>
